--- a/biology/Botanique/Attelabus_nitens/Attelabus_nitens.xlsx
+++ b/biology/Botanique/Attelabus_nitens/Attelabus_nitens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cigarier du chêne
-Attelabus nitens, le Cigarier du chêne (également nommé Cigarier toulousain[2] et Attélabe du chêne[2]), est une espèce d'insectes coléoptères appartenant à la famille des Attelabidae. Il s'agit un petit coléoptère long de 4 à 6 mm, presque globuleux chez la femelle, aux pronotum et aux élytres rouges à roux et à la tête et aux pattes noires . À l'instar des cigariers, la femelle confectionne un rouleau à partir d'une feuille de Chêne et plus rarement de Châtaignier, d'Aulne et de Noisetier. Elle découpe la feuille jusqu'à la nervure centrale puis enroule une moitié du limbe pour former un « cigare » restant attaché à la partie proximale de la feuille ; elle pond ses œufs (de 1 à 4) dans la cavité formée. Les larves s'y développent puis le cigare tombe sur le sol où la nymphose a lieu[3]. Les dégâts causés aux arbres sont insignifiants. Cette espèce a une distribution eurasiatique ; soit sur l'ensemble de l'Europe à l'exception du grand Nord[4], en Asie et au Moyen-Orient[3],[5].
+Attelabus nitens, le Cigarier du chêne (également nommé Cigarier toulousain et Attélabe du chêne), est une espèce d'insectes coléoptères appartenant à la famille des Attelabidae. Il s'agit un petit coléoptère long de 4 à 6 mm, presque globuleux chez la femelle, aux pronotum et aux élytres rouges à roux et à la tête et aux pattes noires . À l'instar des cigariers, la femelle confectionne un rouleau à partir d'une feuille de Chêne et plus rarement de Châtaignier, d'Aulne et de Noisetier. Elle découpe la feuille jusqu'à la nervure centrale puis enroule une moitié du limbe pour former un « cigare » restant attaché à la partie proximale de la feuille ; elle pond ses œufs (de 1 à 4) dans la cavité formée. Les larves s'y développent puis le cigare tombe sur le sol où la nymphose a lieu. Les dégâts causés aux arbres sont insignifiants. Cette espèce a une distribution eurasiatique ; soit sur l'ensemble de l'Europe à l'exception du grand Nord, en Asie et au Moyen-Orient,.
 	Attelabus nitens, le Cigarier du chêne
 			cigare
 			œuf
